--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Dell-7560\Google Drive\ChatBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5027DD7A-AB06-4702-BAC3-F737EBFCF718}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE43608A-916D-4414-8A7C-A2781E230133}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16566" windowHeight="5253" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -463,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A9:J19"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -483,65 +483,321 @@
     <col min="10" max="10" width="16.69921875" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>4.3</v>
+      </c>
+      <c r="F2">
+        <v>400</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>3.5</v>
+      </c>
+      <c r="F3">
+        <v>700</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>350</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>700</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>2000</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="I6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>300</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>4.2</v>
+      </c>
+      <c r="F8">
+        <v>200</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>37</v>
+      <c r="A9">
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" t="s">
-        <v>13</v>
+        <v>38</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>500</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.83333333333333337</v>
       </c>
       <c r="I9" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="J9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E10">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="F10">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="G10" s="1">
-        <v>0.33333333333333331</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="H10" s="1">
-        <v>0.5</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="I10" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="J10" t="s">
         <v>16</v>
@@ -549,289 +805,33 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E11">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="F11">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="G11" s="1">
-        <v>0.41666666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="H11" s="1">
-        <v>0.66666666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="I11" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="J11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12">
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <v>5</v>
-      </c>
-      <c r="F12">
-        <v>350</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="I12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13">
-        <v>10</v>
-      </c>
-      <c r="E13">
-        <v>5</v>
-      </c>
-      <c r="F13">
-        <v>700</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="I13" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>5</v>
-      </c>
-      <c r="F14">
-        <v>2000</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="I14" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>6</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15">
-        <v>6</v>
-      </c>
-      <c r="E15">
-        <v>4</v>
-      </c>
-      <c r="F15">
-        <v>300</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="I15" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>7</v>
-      </c>
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16">
-        <v>5</v>
-      </c>
-      <c r="E16">
-        <v>4.2</v>
-      </c>
-      <c r="F16">
-        <v>200</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0.375</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I16" t="s">
-        <v>28</v>
-      </c>
-      <c r="J16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>8</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17">
-        <v>8</v>
-      </c>
-      <c r="E17">
-        <v>4</v>
-      </c>
-      <c r="F17">
-        <v>500</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="I17" t="s">
-        <v>30</v>
-      </c>
-      <c r="J17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>9</v>
-      </c>
-      <c r="B18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18">
-        <v>15</v>
-      </c>
-      <c r="E18">
-        <v>5</v>
-      </c>
-      <c r="F18">
-        <v>600</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="I18" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>10</v>
-      </c>
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19">
-        <v>10</v>
-      </c>
-      <c r="E19">
-        <v>3.8</v>
-      </c>
-      <c r="F19">
-        <v>500</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="I19" t="s">
-        <v>39</v>
-      </c>
-      <c r="J19" t="s">
         <v>4</v>
       </c>
     </row>
